--- a/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
@@ -608,6 +608,9 @@
         <v xml:space="preserve">542_吊米 红_hanging amaranthus
 red_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -669,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010106101051055105510101520101050</v>
+        <v>010106101051055105510101520101055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>4</v>
+      </c>
+      <c r="C23" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>865_腊梅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>582_腊梅蓝_wax blue_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -672,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010106101051055105510101520101055</v>
+        <v>01010610105105510551010152010105559611755550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>580_腊梅黄_wax yellow_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010610105105510551010152010105559611755550</v>
+        <v>01010610105105510551010152010105559611755555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,305 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F40" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>6</v>
+      </c>
+      <c r="C41" t="str">
+        <v>845_干花紫罗兰_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>613_康乃馨粉末_undefined_undefined_20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>832_康乃馨香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>8</v>
+      </c>
+      <c r="C56" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>65_白月光_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>9</v>
+      </c>
+      <c r="C63" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>787_菟葵粉铃铛_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L66"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +1051,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010610105105510551010152010105559611755555</v>
+        <v>0101061010510551055101015201010555961175555510885911010650105851059410101015101515151510510320555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2026-2-2.xlsx
@@ -1053,6 +1053,9 @@
       <c r="G2" t="str">
         <v>0101061010510551055101015201010555961175555510885911010650105851059410101015101515151510510320555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
